--- a/Administracion-de-Proyectos/Planeacion-del-proyecto/Administracion-de-riesgos/TMv3-Herramienta para la Administración de Riesgos.xlsx
+++ b/Administracion-de-Proyectos/Planeacion-del-proyecto/Administracion-de-riesgos/TMv3-Herramienta para la Administración de Riesgos.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2596" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2612" uniqueCount="497">
   <si>
     <t xml:space="preserve">El informe del resumen de los riesgos sintetiza el estado total de los riesgos en el proyecto.  </t>
   </si>
@@ -1830,19 +1830,55 @@
     <t>06/22/15</t>
   </si>
   <si>
-    <t>1.4.5</t>
-  </si>
-  <si>
-    <t>1.7.1</t>
-  </si>
-  <si>
-    <t>2.10.1</t>
-  </si>
-  <si>
     <t>1.2.3</t>
   </si>
   <si>
-    <t>1.4.4</t>
+    <t>1.3.5</t>
+  </si>
+  <si>
+    <t>1.2.2.12</t>
+  </si>
+  <si>
+    <t>1.2.2.11</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.1.6</t>
+  </si>
+  <si>
+    <t>1.1.7</t>
+  </si>
+  <si>
+    <t>1.2.2</t>
+  </si>
+  <si>
+    <t>1.1.1</t>
+  </si>
+  <si>
+    <t>1.2.5</t>
+  </si>
+  <si>
+    <t>1.1.8</t>
+  </si>
+  <si>
+    <t>1.1.5</t>
+  </si>
+  <si>
+    <t>1.1.9</t>
+  </si>
+  <si>
+    <t>1.2.2.6</t>
+  </si>
+  <si>
+    <t>1.2.1.5</t>
+  </si>
+  <si>
+    <t>1.1.3</t>
+  </si>
+  <si>
+    <t>1.2.2.11.1</t>
   </si>
 </sst>
 </file>
@@ -2432,7 +2468,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="241">
+  <cellXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3071,9 +3107,6 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3082,6 +3115,15 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3998,12 +4040,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="77451648"/>
-        <c:axId val="77453184"/>
-        <c:axId val="62900864"/>
+        <c:axId val="84821120"/>
+        <c:axId val="84822656"/>
+        <c:axId val="65854080"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="77451648"/>
+        <c:axId val="84821120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4048,7 +4090,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77453184"/>
+        <c:crossAx val="84822656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4058,7 +4100,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77453184"/>
+        <c:axId val="84822656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4103,13 +4145,13 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77451648"/>
+        <c:crossAx val="84821120"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="62900864"/>
+        <c:axId val="65854080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4154,7 +4196,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="77453184"/>
+        <c:crossAx val="84822656"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -6873,10 +6915,10 @@
       <c r="D15" s="197"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="238" t="s">
+      <c r="A16" s="237" t="s">
         <v>226</v>
       </c>
-      <c r="B16" s="239"/>
+      <c r="B16" s="238"/>
       <c r="C16" s="199"/>
       <c r="D16" s="199"/>
       <c r="E16" s="200"/>
@@ -6916,10 +6958,10 @@
       <c r="D21" s="197"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="238" t="s">
+      <c r="A22" s="237" t="s">
         <v>229</v>
       </c>
-      <c r="B22" s="239"/>
+      <c r="B22" s="238"/>
       <c r="C22" s="197"/>
       <c r="D22" s="197"/>
     </row>
@@ -6958,12 +7000,12 @@
       <c r="D27" s="197"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="238" t="s">
+      <c r="A28" s="237" t="s">
         <v>231</v>
       </c>
-      <c r="B28" s="240"/>
-      <c r="C28" s="240"/>
-      <c r="D28" s="239"/>
+      <c r="B28" s="239"/>
+      <c r="C28" s="239"/>
+      <c r="D28" s="238"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="196" t="s">
@@ -7879,8 +7921,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:AB775"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A307" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F446" sqref="F446"/>
+    <sheetView tabSelected="1" topLeftCell="A553" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D571" sqref="D571"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7953,8 +7995,8 @@
       <c r="B4" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="237">
-        <v>1.4</v>
+      <c r="C4" s="240" t="s">
+        <v>492</v>
       </c>
       <c r="D4" s="192"/>
       <c r="E4" s="21"/>
@@ -8455,8 +8497,8 @@
       <c r="B30" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C30" s="236" t="s">
-        <v>484</v>
+      <c r="C30" s="241" t="s">
+        <v>491</v>
       </c>
       <c r="D30" s="192"/>
       <c r="E30" s="21"/>
@@ -8986,8 +9028,8 @@
       <c r="B56" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C56" s="191">
-        <v>3</v>
+      <c r="C56" s="241" t="s">
+        <v>490</v>
       </c>
       <c r="D56" s="192"/>
       <c r="E56" s="21"/>
@@ -9455,8 +9497,8 @@
       <c r="B82" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C82" s="237">
-        <v>1.1000000000000001</v>
+      <c r="C82" s="240" t="s">
+        <v>489</v>
       </c>
       <c r="D82" s="192"/>
       <c r="E82" s="21"/>
@@ -9934,8 +9976,8 @@
       <c r="B108" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C108" s="236" t="s">
-        <v>480</v>
+      <c r="C108" s="241" t="s">
+        <v>488</v>
       </c>
       <c r="D108" s="192"/>
       <c r="E108" s="21"/>
@@ -10408,8 +10450,8 @@
       <c r="B133" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C133" s="191">
-        <v>3</v>
+      <c r="C133" s="236" t="s">
+        <v>487</v>
       </c>
       <c r="D133" s="192"/>
       <c r="E133" s="21"/>
@@ -10884,8 +10926,8 @@
       <c r="B159" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C159" s="237">
-        <v>2.11</v>
+      <c r="C159" s="240" t="s">
+        <v>487</v>
       </c>
       <c r="D159" s="192"/>
       <c r="E159" s="21"/>
@@ -11369,8 +11411,8 @@
       <c r="B185" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C185" s="237">
-        <v>1.6</v>
+      <c r="C185" s="240" t="s">
+        <v>486</v>
       </c>
       <c r="D185" s="192"/>
       <c r="E185" s="21"/>
@@ -11865,8 +11907,8 @@
       <c r="B211" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C211" s="236" t="s">
-        <v>480</v>
+      <c r="C211" s="241" t="s">
+        <v>485</v>
       </c>
       <c r="D211" s="192"/>
       <c r="E211" s="21"/>
@@ -12351,8 +12393,8 @@
       <c r="B237" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C237" s="237">
-        <v>1.4</v>
+      <c r="C237" s="240" t="s">
+        <v>484</v>
       </c>
       <c r="D237" s="192"/>
       <c r="E237" s="21"/>
@@ -12847,8 +12889,8 @@
       <c r="B263" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C263" s="191">
-        <v>2</v>
+      <c r="C263" s="241" t="s">
+        <v>483</v>
       </c>
       <c r="D263" s="192"/>
       <c r="E263" s="21"/>
@@ -13342,8 +13384,8 @@
       <c r="B289" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C289" s="191">
-        <v>2</v>
+      <c r="C289" s="241" t="s">
+        <v>482</v>
       </c>
       <c r="D289" s="192"/>
       <c r="E289" s="21"/>
@@ -13841,8 +13883,8 @@
       <c r="B315" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C315" s="191">
-        <v>4</v>
+      <c r="C315" s="236" t="s">
+        <v>481</v>
       </c>
       <c r="D315" s="192"/>
       <c r="E315" s="21"/>
@@ -14329,8 +14371,8 @@
       <c r="B341" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C341" s="191">
-        <v>3</v>
+      <c r="C341" s="236" t="s">
+        <v>493</v>
       </c>
       <c r="D341" s="192"/>
       <c r="E341" s="21"/>
@@ -14828,8 +14870,8 @@
       <c r="B367" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C367" s="237">
-        <v>1.1000000000000001</v>
+      <c r="C367" s="240" t="s">
+        <v>494</v>
       </c>
       <c r="D367" s="192"/>
       <c r="E367" s="21"/>
@@ -15323,8 +15365,8 @@
       <c r="B393" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C393" s="191">
-        <v>5</v>
+      <c r="C393" s="236" t="s">
+        <v>481</v>
       </c>
       <c r="D393" s="192"/>
       <c r="E393" s="21"/>
@@ -15818,8 +15860,8 @@
       <c r="B419" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C419" s="191">
-        <v>4</v>
+      <c r="C419" s="236" t="s">
+        <v>489</v>
       </c>
       <c r="D419" s="192"/>
       <c r="E419" s="21"/>
@@ -16303,8 +16345,8 @@
       <c r="B445" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C445" s="191">
-        <v>1</v>
+      <c r="C445" s="241" t="s">
+        <v>480</v>
       </c>
       <c r="D445" s="192"/>
       <c r="E445" s="21"/>
@@ -16789,7 +16831,7 @@
         <v>213</v>
       </c>
       <c r="C471" s="236" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="D471" s="192"/>
       <c r="E471" s="21"/>
@@ -17266,7 +17308,7 @@
         <v>213</v>
       </c>
       <c r="C496" s="236" t="s">
-        <v>482</v>
+        <v>496</v>
       </c>
       <c r="D496" s="192"/>
       <c r="E496" s="21"/>
@@ -17742,8 +17784,8 @@
       <c r="B521" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C521" s="191">
-        <v>5</v>
+      <c r="C521" s="236" t="s">
+        <v>487</v>
       </c>
       <c r="D521" s="192"/>
       <c r="E521" s="21"/>
@@ -18209,8 +18251,8 @@
       <c r="B546" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C546" s="191">
-        <v>1</v>
+      <c r="C546" s="242">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D546" s="192"/>
       <c r="E546" s="21"/>
@@ -18684,8 +18726,8 @@
       <c r="B572" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C572" s="191">
-        <v>1</v>
+      <c r="C572" s="242">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D572" s="192"/>
       <c r="E572" s="21"/>
@@ -19151,8 +19193,8 @@
       <c r="B597" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C597" s="191">
-        <v>1</v>
+      <c r="C597" s="242">
+        <v>1.1000000000000001</v>
       </c>
       <c r="D597" s="192"/>
       <c r="E597" s="21"/>
@@ -19647,7 +19689,7 @@
         <v>213</v>
       </c>
       <c r="C623" s="236" t="s">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="D623" s="192"/>
       <c r="E623" s="21"/>
@@ -20127,7 +20169,7 @@
         <v>213</v>
       </c>
       <c r="C648" s="236" t="s">
-        <v>481</v>
+        <v>495</v>
       </c>
       <c r="D648" s="192"/>
       <c r="E648" s="21"/>

--- a/Administracion-de-Proyectos/Planeacion-del-proyecto/Administracion-de-riesgos/TMv3-Herramienta para la Administración de Riesgos.xlsx
+++ b/Administracion-de-Proyectos/Planeacion-del-proyecto/Administracion-de-riesgos/TMv3-Herramienta para la Administración de Riesgos.xlsx
@@ -3107,6 +3107,15 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3115,15 +3124,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4040,12 +4040,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="84821120"/>
-        <c:axId val="84822656"/>
-        <c:axId val="65854080"/>
+        <c:axId val="88491136"/>
+        <c:axId val="88492672"/>
+        <c:axId val="71555712"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="84821120"/>
+        <c:axId val="88491136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4090,7 +4090,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84822656"/>
+        <c:crossAx val="88492672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4100,7 +4100,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84822656"/>
+        <c:axId val="88492672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4145,13 +4145,13 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84821120"/>
+        <c:crossAx val="88491136"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="65854080"/>
+        <c:axId val="71555712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4196,7 +4196,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="84822656"/>
+        <c:crossAx val="88492672"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -6915,10 +6915,10 @@
       <c r="D15" s="197"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="237" t="s">
+      <c r="A16" s="240" t="s">
         <v>226</v>
       </c>
-      <c r="B16" s="238"/>
+      <c r="B16" s="241"/>
       <c r="C16" s="199"/>
       <c r="D16" s="199"/>
       <c r="E16" s="200"/>
@@ -6958,10 +6958,10 @@
       <c r="D21" s="197"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="237" t="s">
+      <c r="A22" s="240" t="s">
         <v>229</v>
       </c>
-      <c r="B22" s="238"/>
+      <c r="B22" s="241"/>
       <c r="C22" s="197"/>
       <c r="D22" s="197"/>
     </row>
@@ -7000,12 +7000,12 @@
       <c r="D27" s="197"/>
     </row>
     <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="237" t="s">
+      <c r="A28" s="240" t="s">
         <v>231</v>
       </c>
-      <c r="B28" s="239"/>
-      <c r="C28" s="239"/>
-      <c r="D28" s="238"/>
+      <c r="B28" s="242"/>
+      <c r="C28" s="242"/>
+      <c r="D28" s="241"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="196" t="s">
@@ -7921,8 +7921,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:AB775"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A553" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D571" sqref="D571"/>
+    <sheetView tabSelected="1" topLeftCell="A529" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D545" sqref="D545"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7995,7 +7995,7 @@
       <c r="B4" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C4" s="240" t="s">
+      <c r="C4" s="237" t="s">
         <v>492</v>
       </c>
       <c r="D4" s="192"/>
@@ -8080,7 +8080,7 @@
         <v>44</v>
       </c>
       <c r="C8" s="133" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="D8" s="49" t="str">
         <f>IF(C8="","WARNING - Please enter a Probability.","")</f>
@@ -8497,7 +8497,7 @@
       <c r="B30" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C30" s="241" t="s">
+      <c r="C30" s="238" t="s">
         <v>491</v>
       </c>
       <c r="D30" s="192"/>
@@ -9028,7 +9028,7 @@
       <c r="B56" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C56" s="241" t="s">
+      <c r="C56" s="238" t="s">
         <v>490</v>
       </c>
       <c r="D56" s="192"/>
@@ -9497,7 +9497,7 @@
       <c r="B82" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C82" s="240" t="s">
+      <c r="C82" s="237" t="s">
         <v>489</v>
       </c>
       <c r="D82" s="192"/>
@@ -9855,7 +9855,7 @@
         <v>320</v>
       </c>
       <c r="E101" s="27">
-        <v>42137</v>
+        <v>42168</v>
       </c>
       <c r="F101" s="28">
         <v>42168</v>
@@ -9879,7 +9879,7 @@
         <v>372</v>
       </c>
       <c r="E102" s="27">
-        <v>42168</v>
+        <v>42169</v>
       </c>
       <c r="F102" s="28">
         <v>42168</v>
@@ -9976,7 +9976,7 @@
       <c r="B108" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C108" s="241" t="s">
+      <c r="C108" s="238" t="s">
         <v>488</v>
       </c>
       <c r="D108" s="192"/>
@@ -10926,7 +10926,7 @@
       <c r="B159" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C159" s="240" t="s">
+      <c r="C159" s="237" t="s">
         <v>487</v>
       </c>
       <c r="D159" s="192"/>
@@ -11411,7 +11411,7 @@
       <c r="B185" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C185" s="240" t="s">
+      <c r="C185" s="237" t="s">
         <v>486</v>
       </c>
       <c r="D185" s="192"/>
@@ -11907,7 +11907,7 @@
       <c r="B211" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C211" s="241" t="s">
+      <c r="C211" s="238" t="s">
         <v>485</v>
       </c>
       <c r="D211" s="192"/>
@@ -12393,7 +12393,7 @@
       <c r="B237" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C237" s="240" t="s">
+      <c r="C237" s="237" t="s">
         <v>484</v>
       </c>
       <c r="D237" s="192"/>
@@ -12889,7 +12889,7 @@
       <c r="B263" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C263" s="241" t="s">
+      <c r="C263" s="238" t="s">
         <v>483</v>
       </c>
       <c r="D263" s="192"/>
@@ -13384,7 +13384,7 @@
       <c r="B289" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C289" s="241" t="s">
+      <c r="C289" s="238" t="s">
         <v>482</v>
       </c>
       <c r="D289" s="192"/>
@@ -14870,7 +14870,7 @@
       <c r="B367" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C367" s="240" t="s">
+      <c r="C367" s="237" t="s">
         <v>494</v>
       </c>
       <c r="D367" s="192"/>
@@ -16345,7 +16345,7 @@
       <c r="B445" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C445" s="241" t="s">
+      <c r="C445" s="238" t="s">
         <v>480</v>
       </c>
       <c r="D445" s="192"/>
@@ -18251,7 +18251,7 @@
       <c r="B546" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C546" s="242">
+      <c r="C546" s="239">
         <v>1.1000000000000001</v>
       </c>
       <c r="D546" s="192"/>
@@ -18726,7 +18726,7 @@
       <c r="B572" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C572" s="242">
+      <c r="C572" s="239">
         <v>1.1000000000000001</v>
       </c>
       <c r="D572" s="192"/>
@@ -19193,7 +19193,7 @@
       <c r="B597" s="190" t="s">
         <v>213</v>
       </c>
-      <c r="C597" s="242">
+      <c r="C597" s="239">
         <v>1.1000000000000001</v>
       </c>
       <c r="D597" s="192"/>
@@ -30785,7 +30785,7 @@
       <c r="J16"/>
       <c r="K16" t="str">
         <f>'Detalle del Riesgo'!$C8</f>
-        <v>Media</v>
+        <v>Alta</v>
       </c>
       <c r="L16" t="str">
         <f>'Detalle del Riesgo'!$C9</f>

--- a/Administracion-de-Proyectos/Planeacion-del-proyecto/Administracion-de-riesgos/TMv3-Herramienta para la Administración de Riesgos.xlsx
+++ b/Administracion-de-Proyectos/Planeacion-del-proyecto/Administracion-de-riesgos/TMv3-Herramienta para la Administración de Riesgos.xlsx
@@ -4,31 +4,32 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="2925" windowWidth="14760" windowHeight="9780"/>
+    <workbookView xWindow="1620" yWindow="2925" windowWidth="14760" windowHeight="9780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Identificacion" sheetId="9" r:id="rId1"/>
-    <sheet name="Guia de Usuario" sheetId="6" r:id="rId2"/>
-    <sheet name="Detalle del Riesgo" sheetId="8" r:id="rId3"/>
-    <sheet name="Resumen" sheetId="2" r:id="rId4"/>
-    <sheet name="Grafico" sheetId="10" r:id="rId5"/>
-    <sheet name="Exposure" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="Control de cambios" sheetId="11" r:id="rId2"/>
+    <sheet name="Guia de Usuario" sheetId="6" r:id="rId3"/>
+    <sheet name="Detalle del Riesgo" sheetId="8" r:id="rId4"/>
+    <sheet name="Resumen" sheetId="2" r:id="rId5"/>
+    <sheet name="Grafico" sheetId="10" r:id="rId6"/>
+    <sheet name="Exposure" sheetId="5" state="hidden" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Detalle del Riesgo'!$I$1:$I$774</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Resumen!$A$11:$J$41</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'Detalle del Riesgo'!$B$3:$F$774</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Guia de Usuario'!$A$3:$B$130</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">Resumen!$A$1:$J$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Detalle del Riesgo'!$I$1:$I$774</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Resumen!$A$11:$J$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'Detalle del Riesgo'!$B$3:$F$774</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Guia de Usuario'!$A$3:$B$130</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">Resumen!$A$1:$J$41</definedName>
     <definedName name="Exposure">Exposure!$S$4:$U$28</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="2">'Detalle del Riesgo'!$2:$2</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'Detalle del Riesgo'!$2:$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2619" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2644" uniqueCount="507">
   <si>
     <t xml:space="preserve">El informe del resumen de los riesgos sintetiza el estado total de los riesgos en el proyecto.  </t>
   </si>
@@ -1891,6 +1892,24 @@
   </si>
   <si>
     <t>1.2</t>
+  </si>
+  <si>
+    <t>TMv3/Administracion-de-Proyectos/ Planeacion-del-proyecto/ Administracion-de-riesgos/TMv3-Herramienta para la Administración de Riesgos.xlsx</t>
+  </si>
+  <si>
+    <t>Control de cambios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id. Proyecto </t>
+  </si>
+  <si>
+    <t>TeresaMartin</t>
+  </si>
+  <si>
+    <t>Nombre del Proyecto</t>
+  </si>
+  <si>
+    <t>Historial de Cambios</t>
   </si>
 </sst>
 </file>
@@ -2110,7 +2129,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -2469,12 +2488,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="246">
+  <cellXfs count="258">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3137,6 +3169,42 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4053,12 +4121,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="86332928"/>
-        <c:axId val="86334464"/>
-        <c:axId val="71621696"/>
+        <c:axId val="92509696"/>
+        <c:axId val="92511232"/>
+        <c:axId val="63753280"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="86332928"/>
+        <c:axId val="92509696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4103,7 +4171,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86334464"/>
+        <c:crossAx val="92511232"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4113,7 +4181,7 @@
         <c:noMultiLvlLbl val="1"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86334464"/>
+        <c:axId val="92511232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4158,13 +4226,13 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86332928"/>
+        <c:crossAx val="92509696"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:minorUnit val="1"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="71621696"/>
+        <c:axId val="63753280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4209,7 +4277,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="86334464"/>
+        <c:crossAx val="92511232"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -6893,8 +6961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30:D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="0" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6963,11 +7031,13 @@
       <c r="C12" s="196"/>
       <c r="D12" s="196"/>
     </row>
-    <row r="13" spans="1:5" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A13" s="238" t="s">
         <v>221</v>
       </c>
-      <c r="B13" s="196"/>
+      <c r="B13" s="196" t="s">
+        <v>501</v>
+      </c>
       <c r="C13" s="196"/>
       <c r="D13" s="196"/>
     </row>
@@ -7164,6 +7234,144 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:D17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="44.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:4" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="246" t="s">
+        <v>502</v>
+      </c>
+      <c r="B4" s="247"/>
+    </row>
+    <row r="5" spans="1:4" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="247"/>
+    </row>
+    <row r="6" spans="1:4" s="255" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="248" t="s">
+        <v>503</v>
+      </c>
+      <c r="B6" s="247" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="255" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="249" t="s">
+        <v>505</v>
+      </c>
+      <c r="B7" s="256" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="255" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="249" t="s">
+        <v>219</v>
+      </c>
+      <c r="B8" s="257">
+        <v>42196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="255" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="249" t="s">
+        <v>220</v>
+      </c>
+      <c r="B9" s="256" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="255" customFormat="1" ht="64.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="249" t="s">
+        <v>221</v>
+      </c>
+      <c r="B10" s="196" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="255" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="256"/>
+    </row>
+    <row r="12" spans="1:4" s="255" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="250" t="s">
+        <v>506</v>
+      </c>
+      <c r="B12" s="251"/>
+      <c r="C12" s="251"/>
+      <c r="D12" s="252"/>
+    </row>
+    <row r="13" spans="1:4" s="255" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="249" t="s">
+        <v>216</v>
+      </c>
+      <c r="B13" s="253" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="254" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="253" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="255" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="240" t="s">
+        <v>217</v>
+      </c>
+      <c r="B14" s="197">
+        <v>42180</v>
+      </c>
+      <c r="C14" s="200" t="s">
+        <v>496</v>
+      </c>
+      <c r="D14" s="200" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="255" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="240" t="s">
+        <v>481</v>
+      </c>
+      <c r="B15" s="201">
+        <v>42181</v>
+      </c>
+      <c r="C15" s="200" t="s">
+        <v>496</v>
+      </c>
+      <c r="D15" s="200" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="255" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="240" t="s">
+        <v>500</v>
+      </c>
+      <c r="B16" s="201">
+        <v>42182</v>
+      </c>
+      <c r="C16" s="200" t="s">
+        <v>497</v>
+      </c>
+      <c r="D16" s="200" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="17" s="255" customFormat="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1">
     <pageSetUpPr fitToPage="1"/>
@@ -8030,7 +8238,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:AB775"/>
@@ -22661,7 +22869,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3">
     <pageSetUpPr fitToPage="1"/>
@@ -24209,7 +24417,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:H1002"/>
   <sheetViews>
@@ -30289,7 +30497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja4"/>
   <dimension ref="A2:AA46"/>
